--- a/Tekstovi/Relacije.xlsx
+++ b/Tekstovi/Relacije.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk516301545" localSheetId="1">Sheet2!$D$28</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="222">
   <si>
     <t>Atribut</t>
   </si>
@@ -446,6 +450,288 @@
   </si>
   <si>
     <t>Vrijeme koje je veslaču bilo potrebno da savlada određenu dionicu. Dio je prirodnog ključa.</t>
+  </si>
+  <si>
+    <t>Relacija</t>
+  </si>
+  <si>
+    <t>BrojVeslacaPoKlubovimaPoGodinama</t>
+  </si>
+  <si>
+    <t>PocetakSezone</t>
+  </si>
+  <si>
+    <t>Klub za koji se broj veslači.</t>
+  </si>
+  <si>
+    <t>Godina za koju se račuan broj ljudi koji su bili registrirani za klub. Dobiva se na temelju trenutne godine. Označava zadnjih 5 godina od trenutne godine.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Broj veslača koji su bili registrirani u klubu 1.1. tražene godine. Dobiva se formulom </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COUNT(IdKlub)</t>
+    </r>
+  </si>
+  <si>
+    <t>MedaljePoGodinama</t>
+  </si>
+  <si>
+    <t>Mjesto</t>
+  </si>
+  <si>
+    <t>Godina</t>
+  </si>
+  <si>
+    <t>BrojMedalja</t>
+  </si>
+  <si>
+    <t>Broj medalja koji je osvojio klub u određenoj godini</t>
+  </si>
+  <si>
+    <t>Označava godinu za koju se dohvaća broj osvojenih medalja.</t>
+  </si>
+  <si>
+    <t>Brojčana prezentacija osvojenog mjesta, poprima vrijednosti 1, 2 ili 3. Na temelju ove vrijednosti moguće je odrediti osvojenu medalju.</t>
+  </si>
+  <si>
+    <t>Klub koji je osvojio medalje</t>
+  </si>
+  <si>
+    <t>PredikcijskiTrening2000/500</t>
+  </si>
+  <si>
+    <t>Vrijeme i datum kada je započeo trening.</t>
+  </si>
+  <si>
+    <t>Redni broj doveslane dionice na treningu.</t>
+  </si>
+  <si>
+    <t>Vrijeme koje je veslaču bilo potrebno da odvesla određenu dionicu.</t>
+  </si>
+  <si>
+    <t>PredikcijskiTrening2000Predikcija</t>
+  </si>
+  <si>
+    <t>PredvidenoVrijeme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veslač za kojeg se predviđa vrijeme veslanja regate. </t>
+  </si>
+  <si>
+    <t>Vrijeme i datum kada je započeo trening na temelju kojeg se radi predviđanje vremena veslanja regate.</t>
+  </si>
+  <si>
+    <t>Predviđeno vrijeme koje bi veslač mogao odveslati na vremenski bliskoj regati.</t>
+  </si>
+  <si>
+    <t>RankPoPosadamaPoGodinama</t>
+  </si>
+  <si>
+    <t>DatumRezultata</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Datum kada je osvojeno određeno mjesto u utrci finala A.</t>
+  </si>
+  <si>
+    <t>Mjesto koje je posada osvojila u finalu A.</t>
+  </si>
+  <si>
+    <t>RegataBrojPosadaPoKategorijama</t>
+  </si>
+  <si>
+    <t>BrojPosada</t>
+  </si>
+  <si>
+    <t>Regata za koju se računa broj posada.</t>
+  </si>
+  <si>
+    <t>Kategorija za koju se računa broj posada.</t>
+  </si>
+  <si>
+    <t>Kratica kategorije za koju se računa broj posada.</t>
+  </si>
+  <si>
+    <t>Broj posada koje su veslale u određenoj kategoriji na pojedinoj regati.</t>
+  </si>
+  <si>
+    <t>RegataBrojVeslacaPoKlubovima</t>
+  </si>
+  <si>
+    <t>BrojVeslaca</t>
+  </si>
+  <si>
+    <t>Klub za koji se računa broj veslača na regati.</t>
+  </si>
+  <si>
+    <t>Ime kluba za koji se računa broj veslača na regati.</t>
+  </si>
+  <si>
+    <t>Regata za koju se računa broj veslača.</t>
+  </si>
+  <si>
+    <t>Broj veslača iz određenog kluba koji su veslali na pojedinoj regati.</t>
+  </si>
+  <si>
+    <t>ZbirnaStartnaLista</t>
+  </si>
+  <si>
+    <t>RedniBrojUtrke</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>Predstavlja redni broj utrke na pojedinoj regati.</t>
+  </si>
+  <si>
+    <t>Kategorija utrke koja se veslala.</t>
+  </si>
+  <si>
+    <t>Utrka za koju se promatraju podaci.</t>
+  </si>
+  <si>
+    <t>Startno vrijeme tražene utrke.</t>
+  </si>
+  <si>
+    <t>Regata za koju se promatraju utrke.</t>
+  </si>
+  <si>
+    <t>Rang tražene utrke (npr. Finale A).</t>
+  </si>
+  <si>
+    <t>RegataVremenaPoUtrkama</t>
+  </si>
+  <si>
+    <t>Regata za koju se promatraju rezultati.</t>
+  </si>
+  <si>
+    <t>Kategorija utrke u kojoj je postignut rezultat.</t>
+  </si>
+  <si>
+    <t>Utrka u kojoj je postignut rezultat.</t>
+  </si>
+  <si>
+    <t>Posada koja je postigla rezultat.</t>
+  </si>
+  <si>
+    <t>Staza u kojoj je posada veslala u pojedinoj utrci.</t>
+  </si>
+  <si>
+    <t>Kratica posade koja je osvojila rezultat. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Vrijeme izmjereno na određenoj kontrolnoj točki.</t>
+  </si>
+  <si>
+    <t>Udaljenost kontrolne točke na kojoj je izmjereno vrijeme od početka staze.</t>
+  </si>
+  <si>
+    <t>VeslaciPoStarosnimKategorijama</t>
+  </si>
+  <si>
+    <t>Starosna kategorija kojoj pripadaju promatrani veslači.</t>
+  </si>
+  <si>
+    <t>Klub u kojem su registrirani promatrani veslači.</t>
+  </si>
+  <si>
+    <t>Broj veslača koji su registrirani u promatranom klubu i spadaju u promatranu starosnu kategoriju.</t>
+  </si>
+  <si>
+    <t>VeslaciUParu</t>
+  </si>
+  <si>
+    <t>VeslaoSaId</t>
+  </si>
+  <si>
+    <t>VeslaoSa</t>
+  </si>
+  <si>
+    <t>VeslaliPuta</t>
+  </si>
+  <si>
+    <t>Veslač za kojeg se promatra s kime je veslao u posadi.</t>
+  </si>
+  <si>
+    <t>Veslač s kojim je veslano u posadi.</t>
+  </si>
+  <si>
+    <t>Ime kategorije utrke koja se veslala. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Ime i prezime veslača s kojim je veslano u posadi. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Broj puta koji su veslači veslali skupa na natjecanjima.</t>
+  </si>
+  <si>
+    <t>VeslacPoKategoriji</t>
+  </si>
+  <si>
+    <t>PutaVeslao</t>
+  </si>
+  <si>
+    <t>Veslač za kojeg se promatra koliko je puta veslao određenu kategoriju.</t>
+  </si>
+  <si>
+    <t>Broj puta koji je veslač veslao određenu kategoriju.</t>
+  </si>
+  <si>
+    <t>Kratica kategorije koja se promatra.</t>
+  </si>
+  <si>
+    <t>VeslanjeNaLokaciji</t>
+  </si>
+  <si>
+    <t>PutaNaLokaciji</t>
+  </si>
+  <si>
+    <t>Veslač za kojeg se promatra koliko je puta veslao na određenoj lokaciji.</t>
+  </si>
+  <si>
+    <t>Lokacija na kojoj je veslač veslao.</t>
+  </si>
+  <si>
+    <t>VremenaPoVeslacu</t>
+  </si>
+  <si>
+    <t>ImeRegate</t>
+  </si>
+  <si>
+    <t>Ime veslača koji je postigao rezultat. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Prezime veslača koji je postigao rezultat. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Veslač koji je postigao rezultat.</t>
+  </si>
+  <si>
+    <t>Vrijeme koje je veslač postigao samostalno ili kao dio posade.</t>
+  </si>
+  <si>
+    <t>Datum kada je počela regata na kojoj je veslač nastupao. Ovaj atribut služi isključivo za sortiranje kod vizualizacije.</t>
+  </si>
+  <si>
+    <t>Ime regate na kojoj je ostvaren rezultat. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Kratica kategorije kojoj pripada utrka u kojoj je postignut rezultat. Ovaj atribut služi za lakšu vizualizaciju.</t>
+  </si>
+  <si>
+    <t>Kontrolna točka na kojoj je izmjereno vrijeme.</t>
   </si>
 </sst>
 </file>
@@ -481,12 +767,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -544,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,6 +869,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:C159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -924,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -1943,9 +2258,753 @@
       <c r="C159" s="4" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+    </row>
+    <row r="167" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="6"/>
+      <c r="E168" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C170" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>